--- a/TIMES-DE/SuppXLS/Scen_HYDROLIZER50_constraint.xlsx
+++ b/TIMES-DE/SuppXLS/Scen_HYDROLIZER50_constraint.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/AdamV/Desktop/Bachelor/GitHub/Bachelor_Git/TIMES-DE/SuppXLS/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EF66BB-E623-F84D-A5BA-49003C6418A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="24580" windowHeight="13580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="516" windowWidth="17016" windowHeight="12816"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -141,9 +135,6 @@
     <t xml:space="preserve">\I: Unit </t>
   </si>
   <si>
-    <t>H2*</t>
-  </si>
-  <si>
     <t>UC_CAP</t>
   </si>
   <si>
@@ -151,18 +142,38 @@
   </si>
   <si>
     <t>H2_Cons</t>
+  </si>
+  <si>
+    <t>SUPCOAH2G1N,SUPCOAH2G2N,SUPSTRH2G3N,SUPSTRH2G2N,SUPKVPR01,SUPNGAH2G1N,SUPNGAH2G3N,SUPNGAH2G2N,SUPNGAH2G3N,SUPSTRH2G1N,SUPSTRH2G2N,SUPGSBH2G2N,SUPELCH2G1N,SUPELCH2G2N,SUPELCH2G3N,SUPNGAH21N,SUPNGAH2CC1N,SUPNGAH2CC2N,SUPNGAH2CC3N,SUPSolH2C1N,SUPSolH2D1N,SUPAlkH2C1N,SUPAlkH2D1N,SUPPTX*,SUPELCAMM01</t>
+  </si>
+  <si>
+    <t>*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -300,45 +311,47 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Neutral" xfId="4" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 3 2 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 42" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2 2" xfId="1"/>
+    <cellStyle name="Normal 3 2 4" xfId="2"/>
+    <cellStyle name="Normal 42" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,44 +655,44 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P51"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="88" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1"/>
-    <col min="2" max="2" width="22.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="9.19921875" style="1"/>
+    <col min="2" max="2" width="22.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.19921875" style="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.1640625" style="1"/>
-    <col min="8" max="8" width="15.83203125" customWidth="1"/>
-    <col min="9" max="16384" width="9.1640625" style="1"/>
+    <col min="7" max="7" width="9.19921875" style="1"/>
+    <col min="8" max="8" width="15.796875" customWidth="1"/>
+    <col min="9" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E1" s="2"/>
       <c r="F1" s="3"/>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="6"/>
@@ -690,7 +703,7 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
         <v>29</v>
       </c>
@@ -704,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>31</v>
@@ -713,7 +726,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>33</v>
       </c>
@@ -724,7 +737,7 @@
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8" spans="2:8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="12" t="s">
         <v>34</v>
       </c>
@@ -737,15 +750,15 @@
       </c>
       <c r="H8" s="12"/>
     </row>
-    <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
+      <c r="D9" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="E9" s="6">
         <v>2010</v>
@@ -760,7 +773,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -774,7 +787,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:8" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -788,7 +801,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -801,7 +814,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E13" s="14">
         <v>2025</v>
       </c>
@@ -810,7 +823,7 @@
         <v>900.00000000000011</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E14" s="1">
         <v>2030</v>
       </c>
@@ -819,7 +832,7 @@
         <v>6834.3750000000009</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E15" s="14">
         <v>2035</v>
       </c>
@@ -828,7 +841,7 @@
         <v>51898.535156250007</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E16" s="14">
         <v>2040</v>
       </c>
@@ -837,7 +850,7 @@
         <v>394104.50134277344</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="E17" s="1">
         <v>2045</v>
       </c>
@@ -846,7 +859,7 @@
         <v>2992731.0570716858</v>
       </c>
     </row>
-    <row r="18" spans="2:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:16" ht="14.4" x14ac:dyDescent="0.3">
       <c r="E18" s="14">
         <v>2050</v>
       </c>
@@ -856,7 +869,7 @@
       </c>
       <c r="H18" s="6"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
@@ -864,7 +877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C23" s="1">
         <v>2023</v>
       </c>
@@ -873,7 +886,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C24" s="1">
         <v>2024</v>
       </c>
@@ -882,7 +895,7 @@
         <v>0.60000000000000009</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C25" s="1">
         <v>2025</v>
       </c>
@@ -894,7 +907,7 @@
       <c r="G25"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C26" s="1">
         <v>2026</v>
       </c>
@@ -906,7 +919,7 @@
       <c r="G26"/>
       <c r="I26"/>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C27" s="1">
         <v>2027</v>
       </c>
@@ -921,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C28" s="1">
         <v>2028</v>
       </c>
@@ -944,7 +957,7 @@
         <v>SUPCOAH2G1N,SUPCOAH2G2N,SUPSTRH2G3N,SUPSTRH2G2N,SUPKVPR01,SUPNGAH2G1N,SUPNGAH2G3N,SUPNGAH2G2N,SUPNGAH2G3N,SUPSTRH2G1N,SUPSTRH2G2N,SUPGSBH2G2N,SUPELCH2G1N,SUPELCH2G2N,SUPELCH2G3N,SUPNGAH21N,SUPNGAH2CC1N,SUPNGAH2CC2N,SUPNGAH2CC3N,SUPSolH2C1N,SUPSolH2D1N,SUPAlkH2C1N,SUPAlkH2D1N</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C29" s="1">
         <v>2029</v>
       </c>
@@ -963,7 +976,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C30" s="1">
         <v>2030</v>
       </c>
@@ -985,7 +998,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C31" s="1">
         <v>2031</v>
       </c>
@@ -1004,7 +1017,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="C32" s="1">
         <v>2032</v>
       </c>
@@ -1023,7 +1036,7 @@
         <v>SUPR0</v>
       </c>
     </row>
-    <row r="33" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C33" s="1">
         <v>2033</v>
       </c>
@@ -1042,7 +1055,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="34" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C34" s="1">
         <v>2034</v>
       </c>
@@ -1061,7 +1074,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="35" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C35" s="1">
         <v>2035</v>
       </c>
@@ -1080,7 +1093,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="36" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C36" s="1">
         <v>2036</v>
       </c>
@@ -1099,7 +1112,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="37" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C37" s="1">
         <v>2037</v>
       </c>
@@ -1118,7 +1131,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="38" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C38" s="1">
         <v>2038</v>
       </c>
@@ -1137,7 +1150,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="39" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C39" s="1">
         <v>2039</v>
       </c>
@@ -1156,7 +1169,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="40" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C40" s="1">
         <v>2040</v>
       </c>
@@ -1175,7 +1188,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="41" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C41" s="1">
         <v>2041</v>
       </c>
@@ -1194,7 +1207,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="42" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C42" s="1">
         <v>2042</v>
       </c>
@@ -1213,7 +1226,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="43" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C43" s="1">
         <v>2043</v>
       </c>
@@ -1232,7 +1245,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="44" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C44" s="1">
         <v>2044</v>
       </c>
@@ -1251,7 +1264,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="45" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C45" s="1">
         <v>2045</v>
       </c>
@@ -1270,7 +1283,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="46" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C46" s="1">
         <v>2046</v>
       </c>
@@ -1289,7 +1302,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="47" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C47" s="1">
         <v>2047</v>
       </c>
@@ -1305,7 +1318,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="48" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C48" s="1">
         <v>2048</v>
       </c>
@@ -1321,7 +1334,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C49" s="1">
         <v>2049</v>
       </c>
@@ -1337,7 +1350,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.3">
       <c r="C50" s="1">
         <v>2050</v>
       </c>
@@ -1353,7 +1366,7 @@
         <v>SUPH2</v>
       </c>
     </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:14" x14ac:dyDescent="0.3">
       <c r="L51"/>
     </row>
   </sheetData>
